--- a/Code/Results/Cases/Case_1_241/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_241/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.31785756501662</v>
+        <v>15.46388812272006</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4.588130669501266</v>
+        <v>7.729717733732095</v>
       </c>
       <c r="E2">
-        <v>8.553784376173351</v>
+        <v>12.72596180790718</v>
       </c>
       <c r="F2">
-        <v>54.21669229885479</v>
+        <v>44.58921583010547</v>
       </c>
       <c r="G2">
-        <v>82.68988286887561</v>
+        <v>57.8414135015265</v>
       </c>
       <c r="H2">
-        <v>20.64341053654127</v>
+        <v>19.80072001141792</v>
       </c>
       <c r="I2">
-        <v>69.43069910385765</v>
+        <v>42.00370031271805</v>
       </c>
       <c r="J2">
-        <v>6.845678700245522</v>
+        <v>10.109041464798</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.68411345225605</v>
+        <v>14.6252971649416</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4.56257468486385</v>
+        <v>7.731607383498005</v>
       </c>
       <c r="E3">
-        <v>8.30571439797435</v>
+        <v>12.7347732422308</v>
       </c>
       <c r="F3">
-        <v>50.39819605777506</v>
+        <v>43.77798400427347</v>
       </c>
       <c r="G3">
-        <v>76.53074389786768</v>
+        <v>56.1295405628279</v>
       </c>
       <c r="H3">
-        <v>19.22695718776271</v>
+        <v>19.59404963810021</v>
       </c>
       <c r="I3">
-        <v>64.78771038057241</v>
+        <v>39.58439637612545</v>
       </c>
       <c r="J3">
-        <v>6.638767292563305</v>
+        <v>10.11490316061085</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.62318182639429</v>
+        <v>14.08227189835592</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>4.548307772254387</v>
+        <v>7.732971663349161</v>
       </c>
       <c r="E4">
-        <v>8.160553306445701</v>
+        <v>12.74289888234467</v>
       </c>
       <c r="F4">
-        <v>48.05502370783788</v>
+        <v>43.2888058150247</v>
       </c>
       <c r="G4">
-        <v>72.66080479061623</v>
+        <v>55.074807882116</v>
       </c>
       <c r="H4">
-        <v>18.42660152855278</v>
+        <v>19.47262906352406</v>
       </c>
       <c r="I4">
-        <v>61.7702325409574</v>
+        <v>38.02187358361337</v>
       </c>
       <c r="J4">
-        <v>6.517702448529612</v>
+        <v>10.12069478094539</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.17618423455038</v>
+        <v>13.85402509191467</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>4.542800747570398</v>
+        <v>7.733578766040622</v>
       </c>
       <c r="E5">
-        <v>8.103108225407277</v>
+        <v>12.74689087757529</v>
       </c>
       <c r="F5">
-        <v>47.08847980342888</v>
+        <v>43.09197246160743</v>
       </c>
       <c r="G5">
-        <v>71.07360785827062</v>
+        <v>54.64481053314584</v>
       </c>
       <c r="H5">
-        <v>18.098436484516</v>
+        <v>19.42457083818628</v>
       </c>
       <c r="I5">
-        <v>60.49838825984555</v>
+        <v>37.36626242879576</v>
       </c>
       <c r="J5">
-        <v>6.469788983005594</v>
+        <v>10.12360443381637</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.10107177556358</v>
+        <v>13.81570835831308</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>4.541903504749907</v>
+        <v>7.733682659711756</v>
       </c>
       <c r="E6">
-        <v>8.093670448196221</v>
+        <v>12.74759479490273</v>
       </c>
       <c r="F6">
-        <v>46.92727038737274</v>
+        <v>43.05944780799597</v>
       </c>
       <c r="G6">
-        <v>70.80845902655659</v>
+        <v>54.57342058210207</v>
       </c>
       <c r="H6">
-        <v>18.04382224300531</v>
+        <v>19.4166779099519</v>
       </c>
       <c r="I6">
-        <v>60.28464309963406</v>
+        <v>37.2562760376586</v>
       </c>
       <c r="J6">
-        <v>6.46191674085684</v>
+        <v>10.12412071270919</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.6172129738281</v>
+        <v>14.07922169300474</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>4.548232321718367</v>
+        <v>7.732979644053993</v>
       </c>
       <c r="E7">
-        <v>8.159771767263695</v>
+        <v>12.74294996641711</v>
       </c>
       <c r="F7">
-        <v>48.0420363629276</v>
+        <v>43.2861407353301</v>
       </c>
       <c r="G7">
-        <v>72.63950566828642</v>
+        <v>55.06900854887076</v>
       </c>
       <c r="H7">
-        <v>18.42218400084387</v>
+        <v>19.47197512071688</v>
       </c>
       <c r="I7">
-        <v>61.75325121813994</v>
+        <v>38.0131074349753</v>
       </c>
       <c r="J7">
-        <v>6.517050612156142</v>
+        <v>10.12073179906159</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.76646345961786</v>
+        <v>15.18063999774324</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>4.578989425544756</v>
+        <v>7.730326842399959</v>
       </c>
       <c r="E8">
-        <v>8.466704388124354</v>
+        <v>12.72843522590959</v>
       </c>
       <c r="F8">
-        <v>52.86518771452862</v>
+        <v>44.30781285096198</v>
       </c>
       <c r="G8">
-        <v>80.586687101352</v>
+        <v>57.25234060176211</v>
       </c>
       <c r="H8">
-        <v>20.123972529091</v>
+        <v>19.72835136274256</v>
       </c>
       <c r="I8">
-        <v>67.86420339647036</v>
+        <v>41.18578900812604</v>
       </c>
       <c r="J8">
-        <v>6.773039304076931</v>
+        <v>10.11060648771349</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.52843021193161</v>
+        <v>17.11354650569206</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4.653526324008419</v>
+        <v>7.726751176464113</v>
       </c>
       <c r="E9">
-        <v>9.13080175150241</v>
+        <v>12.72160251247386</v>
       </c>
       <c r="F9">
-        <v>62.45349566617405</v>
+        <v>46.37024980785385</v>
       </c>
       <c r="G9">
-        <v>95.47950971359784</v>
+        <v>61.47491567459172</v>
       </c>
       <c r="H9">
-        <v>23.80690200074879</v>
+        <v>20.27243875824717</v>
       </c>
       <c r="I9">
-        <v>78.54004445614619</v>
+        <v>46.7787970820214</v>
       </c>
       <c r="J9">
-        <v>7.32743946464389</v>
+        <v>10.10822160243079</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.02515941378453</v>
+        <v>18.39153772040988</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>4.722381526065432</v>
+        <v>7.725127013220942</v>
       </c>
       <c r="E10">
-        <v>9.66742296277347</v>
+        <v>12.72987491738833</v>
       </c>
       <c r="F10">
-        <v>69.36277914406369</v>
+        <v>47.90568748517494</v>
       </c>
       <c r="G10">
-        <v>106.1816886928492</v>
+        <v>64.50414412291448</v>
       </c>
       <c r="H10">
-        <v>26.45884182014038</v>
+        <v>20.69436942026452</v>
       </c>
       <c r="I10">
-        <v>85.60880529061326</v>
+        <v>50.48748964831372</v>
       </c>
       <c r="J10">
-        <v>7.776544142262597</v>
+        <v>10.11721207091131</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.10503410527777</v>
+        <v>18.94157951104751</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>4.758566766375962</v>
+        <v>7.724608544374606</v>
       </c>
       <c r="E11">
-        <v>9.925912444897168</v>
+        <v>12.73654248767226</v>
       </c>
       <c r="F11">
-        <v>72.51953460741879</v>
+        <v>48.6053310187205</v>
       </c>
       <c r="G11">
-        <v>111.0663192396443</v>
+        <v>65.85944379355729</v>
       </c>
       <c r="H11">
-        <v>27.67030600482919</v>
+        <v>20.89045543231269</v>
       </c>
       <c r="I11">
-        <v>88.66174843512356</v>
+        <v>52.08534703260499</v>
       </c>
       <c r="J11">
-        <v>7.993381276541352</v>
+        <v>10.12365035974141</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.50609682796112</v>
+        <v>19.14533481163435</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>4.773189132146319</v>
+        <v>7.724444128018039</v>
       </c>
       <c r="E12">
-        <v>10.02633769127061</v>
+        <v>12.73948595990004</v>
       </c>
       <c r="F12">
-        <v>73.72210563784525</v>
+        <v>48.87017583043146</v>
       </c>
       <c r="G12">
-        <v>112.9265230187291</v>
+        <v>66.368886747877</v>
       </c>
       <c r="H12">
-        <v>28.13181652896725</v>
+        <v>20.96524579847746</v>
       </c>
       <c r="I12">
-        <v>89.79490566287596</v>
+        <v>52.67744494454093</v>
       </c>
       <c r="J12">
-        <v>8.101661487595385</v>
+        <v>10.12642695060378</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.42006755570699</v>
+        <v>19.10165446781612</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>4.769994636806176</v>
+        <v>7.724478114804402</v>
       </c>
       <c r="E13">
-        <v>10.00458682011693</v>
+        <v>12.73883340025739</v>
       </c>
       <c r="F13">
-        <v>73.46268844108005</v>
+        <v>48.81314504986548</v>
       </c>
       <c r="G13">
-        <v>112.5252668017882</v>
+        <v>66.25934484517246</v>
       </c>
       <c r="H13">
-        <v>28.03225949741643</v>
+        <v>20.9491154314576</v>
       </c>
       <c r="I13">
-        <v>89.55187185862796</v>
+        <v>52.55050504930328</v>
       </c>
       <c r="J13">
-        <v>8.073665936732938</v>
+        <v>10.12581389385634</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.13818630349805</v>
+        <v>18.95843357864365</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>4.759749769499493</v>
+        <v>7.724594376744808</v>
       </c>
       <c r="E14">
-        <v>9.934120215683979</v>
+        <v>12.73677625479573</v>
       </c>
       <c r="F14">
-        <v>72.61829066896394</v>
+        <v>48.62712332969024</v>
       </c>
       <c r="G14">
-        <v>111.2190919387946</v>
+        <v>65.90143448747506</v>
       </c>
       <c r="H14">
-        <v>27.70820541221145</v>
+        <v>20.89659806435153</v>
       </c>
       <c r="I14">
-        <v>88.7554306517542</v>
+        <v>52.13432002565619</v>
       </c>
       <c r="J14">
-        <v>8.000272645572183</v>
+        <v>10.12387200243344</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.96450739298549</v>
+        <v>18.87011552320606</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>4.753602187427552</v>
+        <v>7.724669753947895</v>
       </c>
       <c r="E15">
-        <v>9.891305346207824</v>
+        <v>12.73557073299515</v>
       </c>
       <c r="F15">
-        <v>72.10219250867462</v>
+        <v>48.51315967612338</v>
       </c>
       <c r="G15">
-        <v>110.4206798230224</v>
+        <v>65.68169744160305</v>
       </c>
       <c r="H15">
-        <v>27.51014372027648</v>
+        <v>20.86449779800469</v>
       </c>
       <c r="I15">
-        <v>88.2646161388755</v>
+        <v>51.87770123785403</v>
       </c>
       <c r="J15">
-        <v>7.964328965788543</v>
+        <v>10.12272664843227</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.95347700689899</v>
+        <v>18.35495817582647</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>4.720131723282535</v>
+        <v>7.72516535002237</v>
       </c>
       <c r="E16">
-        <v>9.650856047887874</v>
+        <v>12.72949770781503</v>
       </c>
       <c r="F16">
-        <v>69.15715953353009</v>
+        <v>47.85996489177818</v>
       </c>
       <c r="G16">
-        <v>105.8634305803832</v>
+        <v>64.41507003753819</v>
       </c>
       <c r="H16">
-        <v>26.37993010447933</v>
+        <v>20.68163311876464</v>
       </c>
       <c r="I16">
-        <v>85.40605400812072</v>
+        <v>50.38125698588403</v>
       </c>
       <c r="J16">
-        <v>7.762659045482501</v>
+        <v>10.11683864795549</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.31904709826847</v>
+        <v>18.03087938850337</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>4.700978396245727</v>
+        <v>7.725525983146547</v>
       </c>
       <c r="E17">
-        <v>9.50731710908091</v>
+        <v>12.72651675488256</v>
       </c>
       <c r="F17">
-        <v>67.35717323398433</v>
+        <v>47.45935932342474</v>
       </c>
       <c r="G17">
-        <v>103.076864684324</v>
+        <v>63.63183684729849</v>
       </c>
       <c r="H17">
-        <v>25.68912378765592</v>
+        <v>20.5704716703448</v>
       </c>
       <c r="I17">
-        <v>83.61107613539417</v>
+        <v>49.4402649510494</v>
       </c>
       <c r="J17">
-        <v>7.642413358423054</v>
+        <v>10.11382872043847</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.94886706821204</v>
+        <v>17.84153069387952</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>4.690402859791154</v>
+        <v>7.725754137937617</v>
       </c>
       <c r="E18">
-        <v>9.426074261772271</v>
+        <v>12.72507552557142</v>
       </c>
       <c r="F18">
-        <v>66.32276283583086</v>
+        <v>47.22906635946156</v>
       </c>
       <c r="G18">
-        <v>101.4750095740001</v>
+        <v>63.17923164279156</v>
       </c>
       <c r="H18">
-        <v>25.2921157145563</v>
+        <v>20.50692855796396</v>
       </c>
       <c r="I18">
-        <v>82.56331114050343</v>
+        <v>48.8906367853018</v>
       </c>
       <c r="J18">
-        <v>7.574398106126822</v>
+        <v>10.11231850326613</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.82261968959802</v>
+        <v>17.77691535278058</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>4.686892360768794</v>
+        <v>7.725834940556858</v>
       </c>
       <c r="E19">
-        <v>9.39878122411111</v>
+        <v>12.72463446245567</v>
       </c>
       <c r="F19">
-        <v>65.97255099954852</v>
+        <v>47.15112272176361</v>
       </c>
       <c r="G19">
-        <v>100.9325966204127</v>
+        <v>63.02564133938778</v>
       </c>
       <c r="H19">
-        <v>25.15770020742612</v>
+        <v>20.48548342974222</v>
       </c>
       <c r="I19">
-        <v>82.20590737247576</v>
+        <v>48.70310536761556</v>
       </c>
       <c r="J19">
-        <v>7.551555534887166</v>
+        <v>10.11184509972871</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.38712771213817</v>
+        <v>18.06568338924203</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>4.702970305945139</v>
+        <v>7.725485446234032</v>
       </c>
       <c r="E20">
-        <v>9.52245787722477</v>
+        <v>12.72680578544053</v>
       </c>
       <c r="F20">
-        <v>67.54866001307964</v>
+        <v>47.50199349396804</v>
       </c>
       <c r="G20">
-        <v>103.3733549987387</v>
+        <v>63.71543563327825</v>
       </c>
       <c r="H20">
-        <v>25.76261505166189</v>
+        <v>20.58226464743871</v>
       </c>
       <c r="I20">
-        <v>83.80373907579248</v>
+        <v>49.54130510658069</v>
       </c>
       <c r="J20">
-        <v>7.655092376669714</v>
+        <v>10.11412625151573</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.22119358573354</v>
+        <v>19.00062425561375</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>4.762731809862608</v>
+        <v>7.724559359728069</v>
       </c>
       <c r="E21">
-        <v>9.954744341539424</v>
+        <v>12.7373691210164</v>
       </c>
       <c r="F21">
-        <v>72.86606539503235</v>
+        <v>48.6817670345036</v>
       </c>
       <c r="G21">
-        <v>111.6023829237378</v>
+        <v>66.00666786147329</v>
       </c>
       <c r="H21">
-        <v>27.80329351944306</v>
+        <v>20.91200959515086</v>
       </c>
       <c r="I21">
-        <v>88.98998307435191</v>
+        <v>52.2569167703959</v>
       </c>
       <c r="J21">
-        <v>8.017590732201535</v>
+        <v>10.12443318921646</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.37412346042085</v>
+        <v>19.5852293122187</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>4.807319911216363</v>
+        <v>7.724140255687939</v>
       </c>
       <c r="E22">
-        <v>10.25244444207399</v>
+        <v>12.74671310399783</v>
       </c>
       <c r="F22">
-        <v>76.38702934861229</v>
+        <v>49.45214975722511</v>
       </c>
       <c r="G22">
-        <v>117.0478309140146</v>
+        <v>67.48188650198634</v>
       </c>
       <c r="H22">
-        <v>29.15456987218752</v>
+        <v>21.13061830241064</v>
       </c>
       <c r="I22">
-        <v>92.2461022600238</v>
+        <v>53.95605091192124</v>
       </c>
       <c r="J22">
-        <v>8.388863831324201</v>
+        <v>10.13314293819171</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.76290705893649</v>
+        <v>19.27564066207554</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>4.782920195560201</v>
+        <v>7.724346829107239</v>
       </c>
       <c r="E23">
-        <v>10.09196028811274</v>
+        <v>12.74150251249817</v>
       </c>
       <c r="F23">
-        <v>74.50139959568799</v>
+        <v>49.0411268991405</v>
       </c>
       <c r="G23">
-        <v>114.1318273999458</v>
+        <v>66.69672593583009</v>
       </c>
       <c r="H23">
-        <v>28.43089013507499</v>
+        <v>21.01367872353836</v>
       </c>
       <c r="I23">
-        <v>90.52029302560409</v>
+        <v>53.05615300520105</v>
       </c>
       <c r="J23">
-        <v>8.185719437361698</v>
+        <v>10.12831357741493</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.35636541739443</v>
+        <v>18.04995794057753</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>4.702068421082525</v>
+        <v>7.725503708133549</v>
       </c>
       <c r="E24">
-        <v>9.515608783388082</v>
+        <v>12.72667426583628</v>
       </c>
       <c r="F24">
-        <v>67.46208788092711</v>
+        <v>47.48271850152633</v>
       </c>
       <c r="G24">
-        <v>103.239311747044</v>
+        <v>63.67764779024028</v>
       </c>
       <c r="H24">
-        <v>25.7293893400001</v>
+        <v>20.57693190082308</v>
       </c>
       <c r="I24">
-        <v>83.71668543464399</v>
+        <v>49.49565175058874</v>
       </c>
       <c r="J24">
-        <v>7.64935674789</v>
+        <v>10.11399105181379</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.55830670834749</v>
+        <v>16.61539234780985</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>4.631366816442267</v>
+        <v>7.727543224494022</v>
       </c>
       <c r="E25">
-        <v>8.94357504418681</v>
+        <v>12.72112336097148</v>
       </c>
       <c r="F25">
-        <v>59.89470489420594</v>
+        <v>45.80763838381693</v>
       </c>
       <c r="G25">
-        <v>91.51081149446921</v>
+        <v>60.34292603907729</v>
       </c>
       <c r="H25">
-        <v>22.82448057484352</v>
+        <v>20.12112573215001</v>
       </c>
       <c r="I25">
-        <v>75.78973891882416</v>
+        <v>45.33509062920468</v>
       </c>
       <c r="J25">
-        <v>7.171017411757759</v>
+        <v>10.10698609646884</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_241/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_241/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.46388812272006</v>
+        <v>24.31785756501655</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>7.729717733732095</v>
+        <v>4.588130669501334</v>
       </c>
       <c r="E2">
-        <v>12.72596180790718</v>
+        <v>8.553784376173343</v>
       </c>
       <c r="F2">
-        <v>44.58921583010547</v>
+        <v>54.21669229885491</v>
       </c>
       <c r="G2">
-        <v>57.8414135015265</v>
+        <v>82.68988286887573</v>
       </c>
       <c r="H2">
-        <v>19.80072001141792</v>
+        <v>20.64341053654133</v>
       </c>
       <c r="I2">
-        <v>42.00370031271805</v>
+        <v>69.43069910385718</v>
       </c>
       <c r="J2">
-        <v>10.109041464798</v>
+        <v>6.845678700245515</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.6252971649416</v>
+        <v>22.68411345225612</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>7.731607383498005</v>
+        <v>4.562574684863647</v>
       </c>
       <c r="E3">
-        <v>12.7347732422308</v>
+        <v>8.305714397974279</v>
       </c>
       <c r="F3">
-        <v>43.77798400427347</v>
+        <v>50.39819605777506</v>
       </c>
       <c r="G3">
-        <v>56.1295405628279</v>
+        <v>76.53074389786769</v>
       </c>
       <c r="H3">
-        <v>19.59404963810021</v>
+        <v>19.22695718776271</v>
       </c>
       <c r="I3">
-        <v>39.58439637612545</v>
+        <v>64.78771038057258</v>
       </c>
       <c r="J3">
-        <v>10.11490316061085</v>
+        <v>6.638767292563317</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.08227189835592</v>
+        <v>21.62318182639427</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>7.732971663349161</v>
+        <v>4.548307772254319</v>
       </c>
       <c r="E4">
-        <v>12.74289888234467</v>
+        <v>8.160553306445706</v>
       </c>
       <c r="F4">
-        <v>43.2888058150247</v>
+        <v>48.05502370783785</v>
       </c>
       <c r="G4">
-        <v>55.074807882116</v>
+        <v>72.66080479061624</v>
       </c>
       <c r="H4">
-        <v>19.47262906352406</v>
+        <v>18.42660152855277</v>
       </c>
       <c r="I4">
-        <v>38.02187358361337</v>
+        <v>61.77023254095738</v>
       </c>
       <c r="J4">
-        <v>10.12069478094539</v>
+        <v>6.517702448529607</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.85402509191467</v>
+        <v>21.17618423455042</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>7.733578766040622</v>
+        <v>4.542800747570333</v>
       </c>
       <c r="E5">
-        <v>12.74689087757529</v>
+        <v>8.103108225407347</v>
       </c>
       <c r="F5">
-        <v>43.09197246160743</v>
+        <v>47.08847980342885</v>
       </c>
       <c r="G5">
-        <v>54.64481053314584</v>
+        <v>71.07360785827052</v>
       </c>
       <c r="H5">
-        <v>19.42457083818628</v>
+        <v>18.098436484516</v>
       </c>
       <c r="I5">
-        <v>37.36626242879576</v>
+        <v>60.4983882598456</v>
       </c>
       <c r="J5">
-        <v>10.12360443381637</v>
+        <v>6.469788983005634</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.81570835831308</v>
+        <v>21.10107177556363</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>7.733682659711756</v>
+        <v>4.541903504749774</v>
       </c>
       <c r="E6">
-        <v>12.74759479490273</v>
+        <v>8.093670448196228</v>
       </c>
       <c r="F6">
-        <v>43.05944780799597</v>
+        <v>46.92727038737274</v>
       </c>
       <c r="G6">
-        <v>54.57342058210207</v>
+        <v>70.80845902655658</v>
       </c>
       <c r="H6">
-        <v>19.4166779099519</v>
+        <v>18.04382224300531</v>
       </c>
       <c r="I6">
-        <v>37.2562760376586</v>
+        <v>60.2846430996342</v>
       </c>
       <c r="J6">
-        <v>10.12412071270919</v>
+        <v>6.461916740856879</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.07922169300474</v>
+        <v>21.61721297382809</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>7.732979644053993</v>
+        <v>4.548232321718436</v>
       </c>
       <c r="E7">
-        <v>12.74294996641711</v>
+        <v>8.159771767263644</v>
       </c>
       <c r="F7">
-        <v>43.2861407353301</v>
+        <v>48.04203636292764</v>
       </c>
       <c r="G7">
-        <v>55.06900854887076</v>
+        <v>72.6395056682864</v>
       </c>
       <c r="H7">
-        <v>19.47197512071688</v>
+        <v>18.42218400084388</v>
       </c>
       <c r="I7">
-        <v>38.0131074349753</v>
+        <v>61.75325121813999</v>
       </c>
       <c r="J7">
-        <v>10.12073179906159</v>
+        <v>6.517050612156057</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.18063999774324</v>
+        <v>23.7664634596178</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>7.730326842399959</v>
+        <v>4.578989425544821</v>
       </c>
       <c r="E8">
-        <v>12.72843522590959</v>
+        <v>8.466704388124413</v>
       </c>
       <c r="F8">
-        <v>44.30781285096198</v>
+        <v>52.86518771452835</v>
       </c>
       <c r="G8">
-        <v>57.25234060176211</v>
+        <v>80.58668710135163</v>
       </c>
       <c r="H8">
-        <v>19.72835136274256</v>
+        <v>20.12397252909091</v>
       </c>
       <c r="I8">
-        <v>41.18578900812604</v>
+        <v>67.86420339647047</v>
       </c>
       <c r="J8">
-        <v>10.11060648771349</v>
+        <v>6.773039304076926</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.11354650569206</v>
+        <v>27.52843021193151</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>7.726751176464113</v>
+        <v>4.653526324008483</v>
       </c>
       <c r="E9">
-        <v>12.72160251247386</v>
+        <v>9.130801751502446</v>
       </c>
       <c r="F9">
-        <v>46.37024980785385</v>
+        <v>62.45349566617398</v>
       </c>
       <c r="G9">
-        <v>61.47491567459172</v>
+        <v>95.47950971359772</v>
       </c>
       <c r="H9">
-        <v>20.27243875824717</v>
+        <v>23.80690200074876</v>
       </c>
       <c r="I9">
-        <v>46.7787970820214</v>
+        <v>78.54004445614574</v>
       </c>
       <c r="J9">
-        <v>10.10822160243079</v>
+        <v>7.327439464643922</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.39153772040988</v>
+        <v>30.02515941378431</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>7.725127013220942</v>
+        <v>4.722381526065565</v>
       </c>
       <c r="E10">
-        <v>12.72987491738833</v>
+        <v>9.667422962773454</v>
       </c>
       <c r="F10">
-        <v>47.90568748517494</v>
+        <v>69.36277914406359</v>
       </c>
       <c r="G10">
-        <v>64.50414412291448</v>
+        <v>106.1816886928491</v>
       </c>
       <c r="H10">
-        <v>20.69436942026452</v>
+        <v>26.45884182014033</v>
       </c>
       <c r="I10">
-        <v>50.48748964831372</v>
+        <v>85.60880529061261</v>
       </c>
       <c r="J10">
-        <v>10.11721207091131</v>
+        <v>7.77654414226258</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.94157951104751</v>
+        <v>31.10503410527761</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>7.724608544374606</v>
+        <v>4.758566766375829</v>
       </c>
       <c r="E11">
-        <v>12.73654248767226</v>
+        <v>9.925912444897197</v>
       </c>
       <c r="F11">
-        <v>48.6053310187205</v>
+        <v>72.51953460741885</v>
       </c>
       <c r="G11">
-        <v>65.85944379355729</v>
+        <v>111.0663192396444</v>
       </c>
       <c r="H11">
-        <v>20.89045543231269</v>
+        <v>27.67030600482921</v>
       </c>
       <c r="I11">
-        <v>52.08534703260499</v>
+        <v>88.66174843512343</v>
       </c>
       <c r="J11">
-        <v>10.12365035974141</v>
+        <v>7.993381276541384</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19.14533481163435</v>
+        <v>31.50609682796117</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>7.724444128018039</v>
+        <v>4.773189132146388</v>
       </c>
       <c r="E12">
-        <v>12.73948595990004</v>
+        <v>10.02633769127062</v>
       </c>
       <c r="F12">
-        <v>48.87017583043146</v>
+        <v>73.7221056378452</v>
       </c>
       <c r="G12">
-        <v>66.368886747877</v>
+        <v>112.9265230187291</v>
       </c>
       <c r="H12">
-        <v>20.96524579847746</v>
+        <v>28.13181652896728</v>
       </c>
       <c r="I12">
-        <v>52.67744494454093</v>
+        <v>89.79490566287586</v>
       </c>
       <c r="J12">
-        <v>10.12642695060378</v>
+        <v>8.101661487595422</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19.10165446781612</v>
+        <v>31.42006755570712</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>7.724478114804402</v>
+        <v>4.769994636806108</v>
       </c>
       <c r="E13">
-        <v>12.73883340025739</v>
+        <v>10.00458682011694</v>
       </c>
       <c r="F13">
-        <v>48.81314504986548</v>
+        <v>73.46268844108022</v>
       </c>
       <c r="G13">
-        <v>66.25934484517246</v>
+        <v>112.5252668017885</v>
       </c>
       <c r="H13">
-        <v>20.9491154314576</v>
+        <v>28.03225949741648</v>
       </c>
       <c r="I13">
-        <v>52.55050504930328</v>
+        <v>89.55187185862836</v>
       </c>
       <c r="J13">
-        <v>10.12581389385634</v>
+        <v>8.073665936732954</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.95843357864365</v>
+        <v>31.13818630349793</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>7.724594376744808</v>
+        <v>4.759749769499493</v>
       </c>
       <c r="E14">
-        <v>12.73677625479573</v>
+        <v>9.934120215683937</v>
       </c>
       <c r="F14">
-        <v>48.62712332969024</v>
+        <v>72.61829066896384</v>
       </c>
       <c r="G14">
-        <v>65.90143448747506</v>
+        <v>111.2190919387944</v>
       </c>
       <c r="H14">
-        <v>20.89659806435153</v>
+        <v>27.70820541221141</v>
       </c>
       <c r="I14">
-        <v>52.13432002565619</v>
+        <v>88.75543065175397</v>
       </c>
       <c r="J14">
-        <v>10.12387200243344</v>
+        <v>8.000272645572176</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.87011552320606</v>
+        <v>30.96450739298562</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>7.724669753947895</v>
+        <v>4.753602187427484</v>
       </c>
       <c r="E15">
-        <v>12.73557073299515</v>
+        <v>9.891305346207787</v>
       </c>
       <c r="F15">
-        <v>48.51315967612338</v>
+        <v>72.1021925086747</v>
       </c>
       <c r="G15">
-        <v>65.68169744160305</v>
+        <v>110.4206798230225</v>
       </c>
       <c r="H15">
-        <v>20.86449779800469</v>
+        <v>27.51014372027655</v>
       </c>
       <c r="I15">
-        <v>51.87770123785403</v>
+        <v>88.26461613887562</v>
       </c>
       <c r="J15">
-        <v>10.12272664843227</v>
+        <v>7.964328965788531</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.35495817582647</v>
+        <v>29.95347700689894</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>7.72516535002237</v>
+        <v>4.720131723282469</v>
       </c>
       <c r="E16">
-        <v>12.72949770781503</v>
+        <v>9.650856047887846</v>
       </c>
       <c r="F16">
-        <v>47.85996489177818</v>
+        <v>69.15715953353019</v>
       </c>
       <c r="G16">
-        <v>64.41507003753819</v>
+        <v>105.8634305803833</v>
       </c>
       <c r="H16">
-        <v>20.68163311876464</v>
+        <v>26.37993010447934</v>
       </c>
       <c r="I16">
-        <v>50.38125698588403</v>
+        <v>85.40605400812065</v>
       </c>
       <c r="J16">
-        <v>10.11683864795549</v>
+        <v>7.76265904548248</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.03087938850337</v>
+        <v>29.31904709826845</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>7.725525983146547</v>
+        <v>4.70097839624566</v>
       </c>
       <c r="E17">
-        <v>12.72651675488256</v>
+        <v>9.507317109080867</v>
       </c>
       <c r="F17">
-        <v>47.45935932342474</v>
+        <v>67.35717323398433</v>
       </c>
       <c r="G17">
-        <v>63.63183684729849</v>
+        <v>103.0768646843239</v>
       </c>
       <c r="H17">
-        <v>20.5704716703448</v>
+        <v>25.68912378765595</v>
       </c>
       <c r="I17">
-        <v>49.4402649510494</v>
+        <v>83.61107613539399</v>
       </c>
       <c r="J17">
-        <v>10.11382872043847</v>
+        <v>7.642413358423049</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.84153069387952</v>
+        <v>28.94886706821207</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>7.725754137937617</v>
+        <v>4.690402859791087</v>
       </c>
       <c r="E18">
-        <v>12.72507552557142</v>
+        <v>9.426074261772269</v>
       </c>
       <c r="F18">
-        <v>47.22906635946156</v>
+        <v>66.3227628358309</v>
       </c>
       <c r="G18">
-        <v>63.17923164279156</v>
+        <v>101.4750095740002</v>
       </c>
       <c r="H18">
-        <v>20.50692855796396</v>
+        <v>25.29211571455627</v>
       </c>
       <c r="I18">
-        <v>48.8906367853018</v>
+        <v>82.56331114050343</v>
       </c>
       <c r="J18">
-        <v>10.11231850326613</v>
+        <v>7.57439810612683</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.77691535278058</v>
+        <v>28.82261968959788</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>7.725834940556858</v>
+        <v>4.686892360768727</v>
       </c>
       <c r="E19">
-        <v>12.72463446245567</v>
+        <v>9.398781224111119</v>
       </c>
       <c r="F19">
-        <v>47.15112272176361</v>
+        <v>65.9725509995487</v>
       </c>
       <c r="G19">
-        <v>63.02564133938778</v>
+        <v>100.932596620413</v>
       </c>
       <c r="H19">
-        <v>20.48548342974222</v>
+        <v>25.15770020742617</v>
       </c>
       <c r="I19">
-        <v>48.70310536761556</v>
+        <v>82.20590737247537</v>
       </c>
       <c r="J19">
-        <v>10.11184509972871</v>
+        <v>7.55155553488719</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.06568338924203</v>
+        <v>29.38712771213815</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>7.725485446234032</v>
+        <v>4.702970305945072</v>
       </c>
       <c r="E20">
-        <v>12.72680578544053</v>
+        <v>9.52245787722471</v>
       </c>
       <c r="F20">
-        <v>47.50199349396804</v>
+        <v>67.54866001307988</v>
       </c>
       <c r="G20">
-        <v>63.71543563327825</v>
+        <v>103.3733549987391</v>
       </c>
       <c r="H20">
-        <v>20.58226464743871</v>
+        <v>25.76261505166197</v>
       </c>
       <c r="I20">
-        <v>49.54130510658069</v>
+        <v>83.80373907579227</v>
       </c>
       <c r="J20">
-        <v>10.11412625151573</v>
+        <v>7.655092376669685</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.00062425561375</v>
+        <v>31.22119358573336</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>7.724559359728069</v>
+        <v>4.762731809862607</v>
       </c>
       <c r="E21">
-        <v>12.7373691210164</v>
+        <v>9.954744341539417</v>
       </c>
       <c r="F21">
-        <v>48.6817670345036</v>
+        <v>72.86606539503224</v>
       </c>
       <c r="G21">
-        <v>66.00666786147329</v>
+        <v>111.6023829237376</v>
       </c>
       <c r="H21">
-        <v>20.91200959515086</v>
+        <v>27.80329351944303</v>
       </c>
       <c r="I21">
-        <v>52.2569167703959</v>
+        <v>88.98998307435137</v>
       </c>
       <c r="J21">
-        <v>10.12443318921646</v>
+        <v>8.017590732201532</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.5852293122187</v>
+        <v>32.37412346042075</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>7.724140255687939</v>
+        <v>4.807319911216297</v>
       </c>
       <c r="E22">
-        <v>12.74671310399783</v>
+        <v>10.25244444207404</v>
       </c>
       <c r="F22">
-        <v>49.45214975722511</v>
+        <v>76.38702934861253</v>
       </c>
       <c r="G22">
-        <v>67.48188650198634</v>
+        <v>117.0478309140151</v>
       </c>
       <c r="H22">
-        <v>21.13061830241064</v>
+        <v>29.15456987218766</v>
       </c>
       <c r="I22">
-        <v>53.95605091192124</v>
+        <v>92.24610226002355</v>
       </c>
       <c r="J22">
-        <v>10.13314293819171</v>
+        <v>8.388863831324228</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.27564066207554</v>
+        <v>31.76290705893634</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>7.724346829107239</v>
+        <v>4.782920195560065</v>
       </c>
       <c r="E23">
-        <v>12.74150251249817</v>
+        <v>10.09196028811274</v>
       </c>
       <c r="F23">
-        <v>49.0411268991405</v>
+        <v>74.50139959568807</v>
       </c>
       <c r="G23">
-        <v>66.69672593583009</v>
+        <v>114.1318273999459</v>
       </c>
       <c r="H23">
-        <v>21.01367872353836</v>
+        <v>28.43089013507502</v>
       </c>
       <c r="I23">
-        <v>53.05615300520105</v>
+        <v>90.52029302560393</v>
       </c>
       <c r="J23">
-        <v>10.12831357741493</v>
+        <v>8.185719437361739</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.04995794057753</v>
+        <v>29.35636541739439</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>7.725503708133549</v>
+        <v>4.702068421082661</v>
       </c>
       <c r="E24">
-        <v>12.72667426583628</v>
+        <v>9.515608783388107</v>
       </c>
       <c r="F24">
-        <v>47.48271850152633</v>
+        <v>67.46208788092753</v>
       </c>
       <c r="G24">
-        <v>63.67764779024028</v>
+        <v>103.2393117470447</v>
       </c>
       <c r="H24">
-        <v>20.57693190082308</v>
+        <v>25.72938934000026</v>
       </c>
       <c r="I24">
-        <v>49.49565175058874</v>
+        <v>83.71668543464349</v>
       </c>
       <c r="J24">
-        <v>10.11399105181379</v>
+        <v>7.649356747889994</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.61539234780985</v>
+        <v>26.55830670834761</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>7.727543224494022</v>
+        <v>4.631366816442401</v>
       </c>
       <c r="E25">
-        <v>12.72112336097148</v>
+        <v>8.943575044186803</v>
       </c>
       <c r="F25">
-        <v>45.80763838381693</v>
+        <v>59.89470489420599</v>
       </c>
       <c r="G25">
-        <v>60.34292603907729</v>
+        <v>91.51081149446927</v>
       </c>
       <c r="H25">
-        <v>20.12112573215001</v>
+        <v>22.82448057484355</v>
       </c>
       <c r="I25">
-        <v>45.33509062920468</v>
+        <v>75.78973891882444</v>
       </c>
       <c r="J25">
-        <v>10.10698609646884</v>
+        <v>7.171017411757755</v>
       </c>
       <c r="K25">
         <v>0</v>
